--- a/biology/Botanique/Reinette_de_Flandre/Reinette_de_Flandre.xlsx
+++ b/biology/Botanique/Reinette_de_Flandre/Reinette_de_Flandre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La reinette de Flandre est une ancienne variété de pomme trouvée dans le Boulonnais dans la région Hauts-de-France.
-Actuellement relancée, au travers d'un programme européen, dans des vergers professionnels belges et français[réf. nécessaire], elle a été inscrite au Catalogue officiel des espèces et variétés de plantes cultivées en France pour une durée de dix ans depuis 2005[1].
+Actuellement relancée, au travers d'un programme européen, dans des vergers professionnels belges et français[réf. nécessaire], elle a été inscrite au Catalogue officiel des espèces et variétés de plantes cultivées en France pour une durée de dix ans depuis 2005.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit fruit (60-70 mm) très rustique, présentant un épiderme gris-verdâtre à uniformément gris, roussissant à maturité et parfois lavé de rouge sur le côté ensoleillé[1].
-C'est une pomme croquante, blanche, très juteuse et légèrement acidulée. On la consomme en pomme à couteau d'octobre à novembre, mais en cuisson jusqu'en février, en compote, tartes et au four[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit fruit (60-70 mm) très rustique, présentant un épiderme gris-verdâtre à uniformément gris, roussissant à maturité et parfois lavé de rouge sur le côté ensoleillé.
+C'est une pomme croquante, blanche, très juteuse et légèrement acidulée. On la consomme en pomme à couteau d'octobre à novembre, mais en cuisson jusqu'en février, en compote, tartes et au four.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est vigoureux et à port moyennement évasé. C'est une variété idéale pour le jardin amateur car elle présente de nombreuses qualités : très bonne ramification, mise à fruit rapide, production régulière à forte si l'éclaircissage est bien maîtrisé, résistante aux maladies comme la tavelure du pommier mais sensible à l'oïdium et au chancre nectrien, peu d'entretien…
 L'arbre fleurit à mi-saison et les fruits sont à maturité tardive et à longue conservation.
